--- a/lab2/lab2.xlsx
+++ b/lab2/lab2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="26">
   <si>
     <t>Бренд</t>
   </si>
@@ -98,12 +98,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -142,11 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -454,7 +465,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +477,7 @@
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -494,38 +505,38 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,20 +555,36 @@
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -576,20 +603,36 @@
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -608,20 +651,36 @@
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -640,20 +699,36 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -672,154 +747,250 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
+      <c r="H6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="I9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H11" s="1" t="s">
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="I15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
